--- a/backend-bulljs/uploads/s2.xlsx
+++ b/backend-bulljs/uploads/s2.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -54,13 +53,13 @@
     <t>1996/11/13</t>
   </si>
   <si>
-    <t>m1@gmail.com</t>
-  </si>
-  <si>
-    <t>r1@gmail.com</t>
-  </si>
-  <si>
-    <t>s1@gmail.com</t>
+    <t>m2@gmail.com</t>
+  </si>
+  <si>
+    <t>r2@gmail.com</t>
+  </si>
+  <si>
+    <t>s2@gmail.com</t>
   </si>
 </sst>
 </file>
